--- a/System_development/Pelican/System_specifications/DataSheet.xlsx
+++ b/System_development/Pelican/System_specifications/DataSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailsc-my.sharepoint.com/personal/matthew_burnett_sc_edu/Documents/Lab projects/UAV/SWIFT-UAV/System_development/System_specifications/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bed47d7ce82522ea/Documents/GitHub/SWIFT-UAV/System_development/Pelican/System_specifications/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="61" documentId="11_F25DC773A252ABDACC104847D15F67645ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C21BCAA7-9A42-496A-81DB-32A620682EE0}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Structure" sheetId="1" r:id="rId1"/>
@@ -401,16 +401,16 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" customWidth="1"/>
+    <col min="4" max="4" width="28.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -422,7 +422,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -442,7 +442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -462,7 +462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -496,7 +496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -507,7 +507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -529,7 +529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -537,7 +537,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13">
         <f>0.225/0.32</f>
         <v>0.703125</v>
